--- a/collect_form.xlsx
+++ b/collect_form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eva\Desktop\2023_project\what-does-Shy-say-develop_eva2\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eva\Desktop\2023_project\what-does-Shy-say-develop_eva4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D003776-23FB-407F-A71E-13751B4102DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DB81A-4B7E-4453-896B-5DF4870C4C7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15096" windowHeight="7416" xr2:uid="{892F6EFF-D678-4179-9C2B-D8069D48D4B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -513,11 +513,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CB32BF-1019-4EB4-9C84-5C88AEFA4C74}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -606,6 +604,484 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/collect_form.xlsx
+++ b/collect_form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eva\Desktop\2023_project\what-does-Shy-say-develop_eva4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eva\Desktop\2023_project\what-does-Shy-say-develop_eva5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DB81A-4B7E-4453-896B-5DF4870C4C7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870D9005-9AF7-4FA7-85A4-5AB524DEABEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15096" windowHeight="7416" xr2:uid="{892F6EFF-D678-4179-9C2B-D8069D48D4B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,9 +43,6 @@
     <t>voice_id</t>
   </si>
   <si>
-    <t>2022/07/26 shu yamino organized neatly</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=GvBPFY3altg&amp;t=10821s</t>
   </si>
   <si>
@@ -54,6 +51,277 @@
   </si>
   <si>
     <t>spvoice_1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4TLRTBpsjmg&amp;t=2988s</t>
+  </si>
+  <si>
+    <t>2021/12/22 how i got here</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NkbG17qCTSA&amp;t=7s</t>
+  </si>
+  <si>
+    <t>(3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/04/27 how many bananas did we get (Just Chatting)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BTNvN_nK9eI&amp;t=2553s</t>
+  </si>
+  <si>
+    <t>2022/07/26 shu yamino organized neatly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOBIES!</t>
+  </si>
+  <si>
+    <t>eyy baby it's me shu yamino</t>
+  </si>
+  <si>
+    <t>hehe</t>
+  </si>
+  <si>
+    <t>HUH!!!!</t>
+  </si>
+  <si>
+    <t>I trust my yaminions</t>
+  </si>
+  <si>
+    <t>ICU PEE</t>
+  </si>
+  <si>
+    <t>I'm harder when I'm not drunk</t>
+  </si>
+  <si>
+    <t>It's a chicken mug!!</t>
+  </si>
+  <si>
+    <t>lemongrab hbd</t>
+  </si>
+  <si>
+    <t>mgmg</t>
+  </si>
+  <si>
+    <t>nya without emo</t>
+  </si>
+  <si>
+    <t>oh oh sorcery spooky</t>
+  </si>
+  <si>
+    <t>shall we cheers</t>
+  </si>
+  <si>
+    <t>Shu let me do it for you</t>
+  </si>
+  <si>
+    <t>shut up this guy</t>
+  </si>
+  <si>
+    <t>UR MOM</t>
+  </si>
+  <si>
+    <t>wake up yaminion</t>
+  </si>
+  <si>
+    <t>you don't want to see me get mad</t>
+  </si>
+  <si>
+    <t>YOU'RE STILL ALIVE!!!</t>
+  </si>
+  <si>
+    <t>you're such a baka</t>
+  </si>
+  <si>
+    <t>goose sound</t>
+  </si>
+  <si>
+    <t>破防daipan</t>
+  </si>
+  <si>
+    <t>圓周率</t>
+  </si>
+  <si>
+    <t>Shu據機</t>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>(8)</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>(14)</t>
+  </si>
+  <si>
+    <t>(15)</t>
+  </si>
+  <si>
+    <t>(16)</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
+  <si>
+    <t>(18)</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>(20)</t>
+  </si>
+  <si>
+    <t>(21)</t>
+  </si>
+  <si>
+    <t>(22)</t>
+  </si>
+  <si>
+    <t>(23)</t>
+  </si>
+  <si>
+    <t>(24)</t>
+  </si>
+  <si>
+    <t>(25)</t>
+  </si>
+  <si>
+    <t>(26)</t>
+  </si>
+  <si>
+    <t>(27)</t>
+  </si>
+  <si>
+    <t>(28)</t>
+  </si>
+  <si>
+    <t>(29)</t>
+  </si>
+  <si>
+    <t>(30)</t>
+  </si>
+  <si>
+    <t>norvoice_1</t>
+  </si>
+  <si>
+    <t>norvoice_2</t>
+  </si>
+  <si>
+    <t>spvoice_2</t>
+  </si>
+  <si>
+    <t>norvoice_3</t>
+  </si>
+  <si>
+    <t>norvoice_4</t>
+  </si>
+  <si>
+    <t>sp_voice_3</t>
+  </si>
+  <si>
+    <t>norvoice_5</t>
+  </si>
+  <si>
+    <t>norvoice_6</t>
+  </si>
+  <si>
+    <t>spvoice_4</t>
+  </si>
+  <si>
+    <t>norvoice_7</t>
+  </si>
+  <si>
+    <t>norvoice_8</t>
+  </si>
+  <si>
+    <t>norvoice_9</t>
+  </si>
+  <si>
+    <t>norvoice_10</t>
+  </si>
+  <si>
+    <t>spvoice_5</t>
+  </si>
+  <si>
+    <t>norvoice_11</t>
+  </si>
+  <si>
+    <t>norvoice_12</t>
+  </si>
+  <si>
+    <t>norvoice_13</t>
+  </si>
+  <si>
+    <t>norvoice_14</t>
+  </si>
+  <si>
+    <t>norvoice_15</t>
+  </si>
+  <si>
+    <t>norvoice_16</t>
+  </si>
+  <si>
+    <t>norvoice_17</t>
+  </si>
+  <si>
+    <t>norvoice_18</t>
+  </si>
+  <si>
+    <t>norvoice_19</t>
+  </si>
+  <si>
+    <t>norvoice_20</t>
+  </si>
+  <si>
+    <t>norvoice_21</t>
+  </si>
+  <si>
+    <t>norvoice_22</t>
+  </si>
+  <si>
+    <t>spvoice_6</t>
+  </si>
+  <si>
+    <t>norvoice_23</t>
+  </si>
+  <si>
+    <t>norvoice_24</t>
   </si>
   <si>
     <r>
@@ -63,8 +331,9 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="微軟正黑體"/>
         <family val="2"/>
+        <charset val="136"/>
       </rPr>
       <t>【</t>
     </r>
@@ -72,7 +341,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Segoe UI Emoji"/>
         <family val="2"/>
       </rPr>
       <t>📻📶</t>
@@ -81,8 +350,9 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="微軟正黑體"/>
         <family val="2"/>
+        <charset val="136"/>
       </rPr>
       <t>】</t>
     </r>
@@ -90,41 +360,295 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>first horror game stream (The Radio Station)</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4TLRTBpsjmg&amp;t=2988s</t>
-  </si>
-  <si>
-    <t>spvoice_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2021/12/22 how i got here</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NkbG17qCTSA&amp;t=7s</t>
-  </si>
-  <si>
-    <t>(3)</t>
+    <t>2022/11/02 Listening to stories... (Coffee Talk pt. 2)</t>
+  </si>
+  <si>
+    <t>2022/11/10 Apex Legends... with a twist?</t>
+  </si>
+  <si>
+    <t>2022/03/21 i get 8th or lower = im a bad driver (Mario Kart 8 Deluxe)</t>
+  </si>
+  <si>
+    <t>2022/08/01 Men of a Certain Age Gravitationally Pulled Downwards (Fall Guys)</t>
+  </si>
+  <si>
+    <t>2023/01/22 【#WrestleSanji2023】 making myself</t>
+  </si>
+  <si>
+    <t>2022/12/03 lmao Valorant LET'S GO</t>
+  </si>
+  <si>
+    <t>2022/09/17 We are Valorant</t>
+  </si>
+  <si>
+    <t>2022/06/04 mug. (Minecraft)</t>
+  </si>
+  <si>
+    <t>2022/06/16 5V5 VALO CUSTOM 2ND SEASON</t>
+  </si>
+  <si>
+    <t>2022/05/26 yoink yoink (actually Jump King)</t>
+  </si>
+  <si>
+    <t>2022/05/24 how many valorant stream titles can I come up with (Valorant)</t>
+  </si>
+  <si>
+    <t>2022/02/21 FULL LOBBY OVERWATCH! (Overwatch Collab)</t>
+  </si>
+  <si>
+    <t>2022/07/29 THE ??? + MILK TIER LIST</t>
+  </si>
+  <si>
+    <t>2023/01/24 【Valorant】 Can The Cyborg Still Concussy?</t>
+  </si>
+  <si>
+    <t>2023/01/09 moregon (The Oregon Trail pt. 2)</t>
+  </si>
+  <si>
+    <t>2021/12/20 【DEBUT】i’m shu yamino</t>
+  </si>
+  <si>
+    <t>2022/09/20 squidding around (Splatoon 3)</t>
+  </si>
+  <si>
+    <t>2022/03/20 swerve zombies (Project Zomboid Collab!)</t>
+  </si>
+  <si>
+    <t>2022/08/19 NijiEN Goose Goose Duck!! (Shu POV)</t>
+  </si>
+  <si>
+    <t>2022/08/11 hummus (Metroid Dread)</t>
+  </si>
+  <si>
+    <t>2022/02/17 snorlax squad (Pokémon Legends: Arceus pt. 4)</t>
+  </si>
+  <si>
+    <t>2022/03/12 BANANA SURVIVAL?? - this is shu yamino btw not banana (Project Zomboid)</t>
+  </si>
+  <si>
+    <t>2023/04/16 House Flipper!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFpXhB2qnkc&amp;t=1747s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0BxpwZ5RsiM&amp;t=11829s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j0ZgTZGau1I&amp;t=23390s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j6VvqhZkcWw&amp;t=15799s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZGYue2USQng&amp;t=2748s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>spvoice_3</t>
+    <t>https://www.youtube.com/watch?v=H-YZFB3cr-I&amp;t=12258s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WCM-q3sqNTQ&amp;t=8462s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jNugczJi9d0&amp;t=2754s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zOkDdjyIppM&amp;t=10088s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lmdz1C1rzXM&amp;t=268s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1UTGM7EsNBo&amp;t=9613s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0Hy8WZyPtCU&amp;list=PLt-RaSHMkJEmQdO4MMVOFPMgPTAwQ55b1&amp;index=44&amp;t=9165s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N7yIm7pH0hI&amp;t=1135s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LcDRKUxiffs&amp;t=24985s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UCahY1BcLKE&amp;t=21006s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jNugczJi9d0&amp;t=5475s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H-YZFB3cr-I&amp;t=13158s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TxZ62ShjEg0&amp;t=19452s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8KNCiv3qevk&amp;t=7648s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NaZrD9lxby8&amp;t=14125s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hwvb3v0O5ys&amp;t=11776s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H-YZFB3cr-I&amp;t=6980s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YlA4mJ-d8eA&amp;t=6338s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dPqzkNsafJc&amp;t=2290s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fi7BrMLb2C0&amp;t=10075s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1On2Foa5FNo&amp;t=10744s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> banene - minion voice</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2022/04/27 how many bananas did we get (Just Chatting)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BTNvN_nK9eI&amp;t=2553s</t>
-  </si>
-  <si>
-    <t>spvoice_4</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gottem</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I could drive!!!!!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a nerd!!!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> nya - lemongrab</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>痛痛飛走了</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +656,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +690,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +733,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,13 +741,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,9 +775,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,577 +1105,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CB32BF-1019-4EB4-9C84-5C88AEFA4C74}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D27" r:id="rId1" xr:uid="{AF7AD64F-89C7-4462-BD79-E008ED13F91E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>